--- a/designs/2018-designs.xlsx
+++ b/designs/2018-designs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/amp212_cam_ac_uk/Documents/Sakura/IIA/CX/GA3 Heat Exchangers/GA3-Project/designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3469B630-3C71-44E6-9EC2-529F1F30E889}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340F54D4-8FB4-401B-A74F-1F8F045F1D65}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -548,11 +548,10 @@
         <v>4</v>
       </c>
       <c r="O2">
-        <f>25.8/2</f>
-        <v>12.9</v>
+        <v>26.7</v>
       </c>
       <c r="P2">
-        <v>12.9</v>
+        <v>26.7</v>
       </c>
       <c r="Q2">
         <v>2018</v>
@@ -607,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="O3">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="P3">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>2018</v>
@@ -664,10 +663,10 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <v>22.9</v>
+        <v>42</v>
       </c>
       <c r="P4">
-        <v>22.9</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>2018</v>
